--- a/input files/L03A/L03A-Link.xlsx
+++ b/input files/L03A/L03A-Link.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thomascook\current\Landing Page App\tc-exp-landing-pages\htmlGenerator\sample files\L03A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thomascook\current\Landing Page App\tc-exp-landing-pages\htmlGenerator3\input files\L03A\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,91 +23,47 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:
-Breadcrumb names should be in Left to Right Order.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:
-Breadcrumb names should be in Left to Right Order.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Other_City_Name</t>
-  </si>
-  <si>
-    <t>Other_City_LP_Link</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Other_City</t>
   </si>
   <si>
-    <t>Breadcrumb_Names</t>
-  </si>
-  <si>
-    <t>Breadcrumb_Links</t>
-  </si>
-  <si>
     <t>Breadcrumb</t>
   </si>
   <si>
-    <t>&lt;a href="#LINK"&gt;#VALUE&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a class="hotel-name" href="#LINK"&gt;#VALUE&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>TEXT_KEY</t>
-  </si>
-  <si>
     <t>NEW_KEY</t>
   </si>
   <si>
-    <t>LINK_KEY</t>
-  </si>
-  <si>
     <t>LAST_TEMPLATE</t>
   </si>
   <si>
     <t>TEMPLATE</t>
+  </si>
+  <si>
+    <t>TEMP_MAP_KEY</t>
+  </si>
+  <si>
+    <t>#LINK:Breadcrumb_Links,#TEXT:Breadcrumb_Names</t>
+  </si>
+  <si>
+    <t>&lt;a href="#LINK"&gt;#TEXT&lt;/a&gt; &lt;span&gt; &gt;&lt;/span&gt;&lt;span class="breadcrumb-spliter"&gt; / &lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a class="active"&gt;#TEXT&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>#LINK:Other_City_LP_Link,#TEXT:Other_City_Name</t>
+  </si>
+  <si>
+    <t>&lt;a class="hotel-name" href="#LINK"&gt;#TEXT&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,91 +72,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFCE9178"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4472C4"/>
-        <bgColor rgb="FF4472C4"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -209,24 +103,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -542,71 +427,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/input files/L03A/L03A-Link.xlsx
+++ b/input files/L03A/L03A-Link.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thomascook\current\Landing Page App\tc-exp-landing-pages\htmlGenerator3\input files\L03A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ramesh\Swaraj\Projects\ThomasCook\landingPageApps\HTML-Generator\input files\L03A\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,13 +56,13 @@
     <t>#LINK:Other_City_LP_Link,#TEXT:Other_City_Name</t>
   </si>
   <si>
-    <t>&lt;a class="hotel-name" href="#LINK"&gt;#TEXT&lt;/a&gt;</t>
+    <t>&lt;div class="col-md-4 col-sm-4 no-padding"&gt;&lt;a class="hotel-name" href="#LINK"&gt;#TEXT&lt;/a&gt;&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -427,7 +427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/input files/L03A/L03A-Link.xlsx
+++ b/input files/L03A/L03A-Link.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ramesh\Swaraj\Projects\ThomasCook\landingPageApps\HTML-Generator\input files\L03A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thomascook\current\Landing Page App\tc-exp-landing-pages\htmlGenerator3\input files\L03A\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,13 +56,13 @@
     <t>#LINK:Other_City_LP_Link,#TEXT:Other_City_Name</t>
   </si>
   <si>
-    <t>&lt;div class="col-md-4 col-sm-4 no-padding"&gt;&lt;a class="hotel-name" href="#LINK"&gt;#TEXT&lt;/a&gt;&lt;/div&gt;</t>
+    <t>&lt;a class="hotel-name" href="#LINK"&gt;#TEXT&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -427,7 +427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
